--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_6_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_6_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.285352271635492e-16</v>
+        <v>1.22170346588738e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>53.15715755510193</v>
+        <v>51.1346574274139</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[47.541981717897364, 58.7723333923065]</t>
+          <t>[45.58196413732337, 56.68735071750443]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 1.7170266154755023]</t>
+          <t>[1.566079220708425, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.50513945712454</v>
+        <v>57.41933532847631</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.70180552335093, 60.30847339089814]</t>
+          <t>[53.85399752241417, 60.98467313453846]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.79195195195217</v>
+        <v>17.57093093093116</v>
       </c>
       <c r="X2" t="n">
-        <v>17.36150150150172</v>
+        <v>17.13885885885908</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.22240240240263</v>
+        <v>18.00300300300324</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.285352271635492e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1290308873343978</v>
-      </c>
+        <v>1.22170346588738e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.81491912269533</v>
+        <v>52.97807066987878</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.26806034898961, 58.36177789640105]</t>
+          <t>[43.55707608422088, 62.39906525553667]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.490605523324887</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 1.6541318676558872]</t>
+          <t>[0.723289599925578, 1.1006580868432723]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.6849941427776</v>
+        <v>57.76995394345558</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.725640218357775, 63.64434806719742]</t>
+          <t>[52.888522590455146, 62.651385296456006]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.23003003003026</v>
+        <v>20.22586586586608</v>
       </c>
       <c r="X3" t="n">
-        <v>17.60800800800823</v>
+        <v>19.51535535535556</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.85205205205229</v>
+        <v>20.9363763763766</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_6_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_6_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.22170346588738e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.289083337736031e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.352842326582618e-06</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>51.1346574274139</v>
+        <v>53.50210678121418</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.58196413732337, 56.68735071750443]</t>
+          <t>[47.96478530286457, 59.03942825956379]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 1.7925003128590413]</t>
+          <t>[1.440289725069194, 1.6667108172198102]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.41933532847631</v>
+        <v>57.82762904972586</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.85399752241417, 60.98467313453846]</t>
+          <t>[54.017963758853284, 61.63729434059843]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.57093093093116</v>
+        <v>17.99079079079102</v>
       </c>
       <c r="X2" t="n">
-        <v>17.13885885885908</v>
+        <v>17.56016016016038</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.00300300300324</v>
+        <v>18.42142142142166</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22170346588738e-16</v>
+        <v>1.289083337736031e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>52.97807066987878</v>
+        <v>51.68738956670703</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.55707608422088, 62.39906525553667]</t>
+          <t>[43.564769127053616, 59.810010006360436]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9119738433844251</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.723289599925578, 1.1006580868432723]</t>
+          <t>[1.7547634641672731, 2.081816152829272]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.76995394345558</v>
+        <v>57.01489812453716</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.888522590455146, 62.651385296456006]</t>
+          <t>[52.46162356397207, 61.568172685102255]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.22586586586608</v>
+        <v>16.72130130130152</v>
       </c>
       <c r="X3" t="n">
-        <v>19.51535535535556</v>
+        <v>16.09485485485507</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.9363763763766</v>
+        <v>17.34774774774797</v>
       </c>
     </row>
   </sheetData>
